--- a/最后阶段/tidb性能调优.xlsx
+++ b/最后阶段/tidb性能调优.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my content\liyan\Desktop\openEuler\spe\summer2021-133\第四阶段\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my content\liyan\Desktop\openEuler\spe\summer2021-133\最后阶段\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA4707C-59A7-4560-9BF1-54FDCAA1F38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3040CAC0-9D17-4B99-93F1-22E947C2156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F307DA20-C40D-4D70-A632-1A5FB729FCB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>测试对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,18 +217,6 @@
   </si>
   <si>
     <t>tikv_config__server__grpc_concurrency=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tikv_config__server__grpc_concurrency=5</t>
-  </si>
-  <si>
-    <t>tikv_config__server__grpc_concurrency=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tikv_config__server__grpc_concurrency=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>默认基础参数设置</t>
@@ -287,6 +275,84 @@
   </si>
   <si>
     <t>queries:3169703（5277.38 pre sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调优参数配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__server__grpc_concurrency=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__server__scheduler_worker_pool_size=2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__storage_block_cache__capacity=4,</t>
+  </si>
+  <si>
+    <t>tikv_config__raftstore__region_max_size=200,</t>
+  </si>
+  <si>
+    <t>tikv_config__raftstore__store_pool_size=10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__bloom_filter_bits_per_key=99,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__disable_auto_compactions=true,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__optimize_filters_for_hits=true,</t>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__block_size=967,</t>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__write_buffer_size=143,</t>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__max_bytes_for_level_base=256,</t>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__target_file_size_base=128,</t>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__level0_slowdown_writes_trigger=38,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__level0_stop_writes_trigger=128,</t>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb_defaultcf__max_write_buffer_number=3,</t>
+  </si>
+  <si>
+    <t>tikv_config__readpool_unified__max_thread_count=7,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb__max_background_jobs=6,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__rocksdb__max_sub_compactions=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries=17535.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries=17783.84</t>
+  </si>
+  <si>
+    <t>atune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +407,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +453,16 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -381,7 +473,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,8 +489,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,11 +524,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="40% - 着色 6" xfId="2" builtinId="51"/>
     <cellStyle name="60% - 着色 3" xfId="3" builtinId="40"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="5" builtinId="26"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
     <cellStyle name="着色 5" xfId="4" builtinId="45"/>
   </cellStyles>
@@ -744,17 +853,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B94583-7680-4ECD-8C6F-81800B1E88C0}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
     <col min="4" max="4" width="39.625" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
@@ -815,7 +924,7 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -834,7 +943,7 @@
         <v>0.05</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -847,13 +956,13 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F5" s="5">
         <v>0.02</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1010,98 +1119,166 @@
       <c r="E23" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
+      <c r="A26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>67</v>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1.4200000000000001E-2</v>
       </c>
     </row>
   </sheetData>
